--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.46589999999999</v>
+        <v>-12.29499999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.283800000000001</v>
+        <v>-7.894800000000004</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.882099999999991</v>
+        <v>-7.532799999999996</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.2686</v>
+        <v>-12.49769999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.319999999999995</v>
+        <v>-8.498699999999989</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.8763</v>
+        <v>13.7216</v>
       </c>
     </row>
     <row r="12">
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.223299999999995</v>
+        <v>6.058199999999997</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.59290000000002</v>
+        <v>-14.54590000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,13 +672,13 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.84369999999999</v>
+        <v>-12.361</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.03420000000001</v>
+        <v>14.02020000000001</v>
       </c>
     </row>
     <row r="15">
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.874999999999996</v>
+        <v>-7.683699999999996</v>
       </c>
       <c r="E19" t="n">
-        <v>13.8869</v>
+        <v>14.1191</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.975800000000003</v>
+        <v>-7.445400000000003</v>
       </c>
       <c r="E21" t="n">
-        <v>13.82370000000001</v>
+        <v>14.1515</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.14109999999999</v>
+        <v>-11.04309999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.144599999999992</v>
+        <v>-8.398399999999992</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
